--- a/templates/AutomationOrg/FinancialData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/FinancialData_AutomationOrg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DEF308-7B23-4451-B600-CBBFF2CCD73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EE275E-BD4C-438E-8AAE-35E47EDF44C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="15" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Vendor</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Bank of Dad</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>100 Home Project</t>
+  </si>
+  <si>
+    <t>Colorado (100)</t>
   </si>
 </sst>
 </file>
@@ -577,10 +589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EE9618-729B-4B79-83BE-CA1B6FCEE5EB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,9 +602,10 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -608,8 +621,14 @@
       <c r="E1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -624,6 +643,12 @@
       </c>
       <c r="E2" t="s">
         <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
